--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnz\AppData\Local\Temp\Mxt241\RemoteFiles\1181214_2_33\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnz\AppData\Local\Temp\Mxt241\RemoteFiles\656804_3_18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0F580F-17FD-4928-9263-44F5B5BE1F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C26A2A-8BAC-4DBC-ABE7-A0D69204D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6150" yWindow="1940" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="475">
   <si>
     <t>name</t>
   </si>
@@ -1075,7 +1075,7 @@
     <t>no background tumor boxes adamw</t>
   </si>
   <si>
-    <t>testSamples24-7.py-batchSize=8-epochs=100-lr=0.001-evalDetailLine=no background tumor boxes adamw-hasBackground=f-usesLargestBox=f-segmentsMultiple=1-dropoutRate=0.2-grouped2D=f</t>
+    <t>testSamples24-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='no background tumor boxes adamw' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f</t>
   </si>
   <si>
     <t>{0: 4.4, 1: 6.4, 2: 6.2}</t>
@@ -1138,7 +1138,7 @@
     <t>background global boxes adamw</t>
   </si>
   <si>
-    <t>testSamples24-7.py-batchSize=8-epochs=100-lr=0.001-evalDetailLine=background global boxes adamw-hasBackground=t-usesLargestBox=t-segmentsMultiple=1-dropoutRate=0.2-grouped2D=f</t>
+    <t>testSamples24-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='background global boxes adamw' -hasBackground=t -usesLargestBox=t -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f</t>
   </si>
   <si>
     <t>{0: 3.8, 1: 7.6, 2: 5.6}</t>
@@ -1207,7 +1207,7 @@
     <t>background tumor boxes adamw</t>
   </si>
   <si>
-    <t>testSamples24-7.py-batchSize=8-epochs=100-lr=0.001-evalDetailLine=background tumor boxes adamw-hasBackground=t-usesLargestBox=f-segmentsMultiple=1-dropoutRate=0.2-grouped2D=f</t>
+    <t>testSamples24-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='background tumor boxes adamw' -hasBackground=t -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f</t>
   </si>
   <si>
     <t>{0: 2.8, 1: 9.8, 2: 4.4}</t>
@@ -1276,7 +1276,7 @@
     <t>no background global boxes adamw</t>
   </si>
   <si>
-    <t>testSamples24-7.py-batchSize=8-epochs=100-lr=0.001-evalDetailLine=no background global boxes adamw-hasBackground=f-usesLargestBox=t-segmentsMultiple=1-dropoutRate=0.2-grouped2D=f</t>
+    <t>testSamples24-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='no background global boxes adamw' -hasBackground=f -usesLargestBox=t -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f</t>
   </si>
   <si>
     <t>{0: 3.2, 1: 8.8, 2: 5.0}</t>
@@ -1337,6 +1337,114 @@
   </si>
   <si>
     <t>[4, 3, 3, 2, 2]</t>
+  </si>
+  <si>
+    <t>Weight tests, viewing performance of legacy vs new weights</t>
+  </si>
+  <si>
+    <t>legacy weights</t>
+  </si>
+  <si>
+    <t>Tests/0--/foldn5</t>
+  </si>
+  <si>
+    <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='legacy weights' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
+  </si>
+  <si>
+    <t>[None, None]</t>
+  </si>
+  <si>
+    <t>{0: 5.2, 1: 6.2, 2: 5.6}</t>
+  </si>
+  <si>
+    <t>[0.17647058823529413, 0.35294117647058826, 0.23529411764705882, 0.35294117647058826, 0.23529411764705882]</t>
+  </si>
+  <si>
+    <t>[0.20168067226890754, 0.3539467068878834, 0.2184873949579832, 0.3770053475935829, 0.23529411764705882]</t>
+  </si>
+  <si>
+    <t>[14, 11, 13, 15, 15]</t>
+  </si>
+  <si>
+    <t>newer weights</t>
+  </si>
+  <si>
+    <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
+  </si>
+  <si>
+    <t>{0: 4.2, 1: 9.8, 2: 3.0}</t>
+  </si>
+  <si>
+    <t>[0.35294117647058826, 0.6470588235294118, 0.5294117647058824, 0.47058823529411764, 0.47058823529411764]</t>
+  </si>
+  <si>
+    <t>[0.3288613691090472, 0.6039215686274512, 0.5409753645047762, 0.36463708290333674, 0.44967320261437904]</t>
+  </si>
+  <si>
+    <t>[19, 25, 35, 17, 21]</t>
+  </si>
+  <si>
+    <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='legacy weights' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Large2DResnet'</t>
+  </si>
+  <si>
+    <t>{0: 3.4, 1: 8.0, 2: 5.6}</t>
+  </si>
+  <si>
+    <t>[0.17647058823529413, 0.47058823529411764, 0.47058823529411764, 0.4117647058823529, 0.17647058823529413]</t>
+  </si>
+  <si>
+    <t>[0.17647058823529413, 0.492436974789916, 0.47058823529411764, 0.34506051224317474, 0.18137254901960784]</t>
+  </si>
+  <si>
+    <t>[15, 15, 16, 28, 11]</t>
+  </si>
+  <si>
+    <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Large2DResnet'</t>
+  </si>
+  <si>
+    <t>{0: 2.6, 1: 8.4, 2: 6.0}</t>
+  </si>
+  <si>
+    <t>[0.29411764705882354, 0.35294117647058826, 0.35294117647058826, 0.17647058823529413, 0.5294117647058824]</t>
+  </si>
+  <si>
+    <t>[0.273109243697479, 0.3025210084033613, 0.3740024681201152, 0.13003095975232196, 0.45940910300771887]</t>
+  </si>
+  <si>
+    <t>[17, 16, 18, 12, 22]</t>
+  </si>
+  <si>
+    <t>newer weights with padding same</t>
+  </si>
+  <si>
+    <t>newer weights with padding 0</t>
+  </si>
+  <si>
+    <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights with padding 0' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
+  </si>
+  <si>
+    <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights with padding same' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
+  </si>
+  <si>
+    <t>{0: 2.4, 1: 8.4, 2: 6.2}</t>
+  </si>
+  <si>
+    <t>[0.35294117647058826, 0.47058823529411764, 0.35294117647058826, 0.35294117647058826, 0.23529411764705882]</t>
+  </si>
+  <si>
+    <t>[0.3585434173669468, 0.4125632153313814, 0.35173453996983406, 0.28431372549019607, 0.23981900452488686]</t>
+  </si>
+  <si>
+    <t>[28, 24, 19, 23, 16]</t>
+  </si>
+  <si>
+    <t>newer weights with padding valid</t>
+  </si>
+  <si>
+    <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights with padding valid' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
+  </si>
+  <si>
+    <t>testing Padding on small model with tumor sizes (0 and valid padding seems to perform the same</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y135"/>
+  <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9437,6 +9545,485 @@
         <v>438</v>
       </c>
     </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>441</v>
+      </c>
+      <c r="B140">
+        <v>100</v>
+      </c>
+      <c r="C140">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>1E-3</v>
+      </c>
+      <c r="E140">
+        <v>0.2</v>
+      </c>
+      <c r="F140">
+        <v>0.01</v>
+      </c>
+      <c r="G140" t="s">
+        <v>442</v>
+      </c>
+      <c r="I140" t="s">
+        <v>443</v>
+      </c>
+      <c r="L140" t="s">
+        <v>443</v>
+      </c>
+      <c r="O140" t="s">
+        <v>444</v>
+      </c>
+      <c r="P140">
+        <v>0.27058823529411768</v>
+      </c>
+      <c r="Q140">
+        <v>0.2772828478710832</v>
+      </c>
+      <c r="R140">
+        <v>0.27058823529411768</v>
+      </c>
+      <c r="S140">
+        <v>9.7992180183451724E-2</v>
+      </c>
+      <c r="T140">
+        <v>0.1015540959098514</v>
+      </c>
+      <c r="U140">
+        <v>9.7992180183451724E-2</v>
+      </c>
+      <c r="V140" t="s">
+        <v>445</v>
+      </c>
+      <c r="W140" t="s">
+        <v>446</v>
+      </c>
+      <c r="X140" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>441</v>
+      </c>
+      <c r="B142">
+        <v>100</v>
+      </c>
+      <c r="C142">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>1E-3</v>
+      </c>
+      <c r="E142">
+        <v>0.2</v>
+      </c>
+      <c r="F142">
+        <v>0.01</v>
+      </c>
+      <c r="G142" t="s">
+        <v>449</v>
+      </c>
+      <c r="I142" t="s">
+        <v>443</v>
+      </c>
+      <c r="L142" t="s">
+        <v>443</v>
+      </c>
+      <c r="O142" t="s">
+        <v>450</v>
+      </c>
+      <c r="P142">
+        <v>0.49411764705882361</v>
+      </c>
+      <c r="Q142">
+        <v>0.45761371755179808</v>
+      </c>
+      <c r="R142">
+        <v>0.49411764705882361</v>
+      </c>
+      <c r="S142">
+        <v>0.13268203919406141</v>
+      </c>
+      <c r="T142">
+        <v>0.14378665462333939</v>
+      </c>
+      <c r="U142">
+        <v>0.13268203919406141</v>
+      </c>
+      <c r="V142" t="s">
+        <v>451</v>
+      </c>
+      <c r="W142" t="s">
+        <v>452</v>
+      </c>
+      <c r="X142" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>441</v>
+      </c>
+      <c r="B144">
+        <v>100</v>
+      </c>
+      <c r="C144">
+        <v>8</v>
+      </c>
+      <c r="D144">
+        <v>1E-3</v>
+      </c>
+      <c r="E144">
+        <v>0.2</v>
+      </c>
+      <c r="F144">
+        <v>0.01</v>
+      </c>
+      <c r="G144" t="s">
+        <v>454</v>
+      </c>
+      <c r="I144" t="s">
+        <v>443</v>
+      </c>
+      <c r="L144" t="s">
+        <v>443</v>
+      </c>
+      <c r="O144" t="s">
+        <v>455</v>
+      </c>
+      <c r="P144">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="Q144">
+        <v>0.33318577191642212</v>
+      </c>
+      <c r="R144">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="S144">
+        <v>0.18905691592541149</v>
+      </c>
+      <c r="T144">
+        <v>0.18829568989524589</v>
+      </c>
+      <c r="U144">
+        <v>0.18905691592541149</v>
+      </c>
+      <c r="V144" t="s">
+        <v>456</v>
+      </c>
+      <c r="W144" t="s">
+        <v>457</v>
+      </c>
+      <c r="X144" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>441</v>
+      </c>
+      <c r="B146">
+        <v>100</v>
+      </c>
+      <c r="C146">
+        <v>8</v>
+      </c>
+      <c r="D146">
+        <v>1E-3</v>
+      </c>
+      <c r="E146">
+        <v>0.2</v>
+      </c>
+      <c r="F146">
+        <v>0.01</v>
+      </c>
+      <c r="G146" t="s">
+        <v>459</v>
+      </c>
+      <c r="I146" t="s">
+        <v>443</v>
+      </c>
+      <c r="L146" t="s">
+        <v>443</v>
+      </c>
+      <c r="O146" t="s">
+        <v>460</v>
+      </c>
+      <c r="P146">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="Q146">
+        <v>0.30781455659619927</v>
+      </c>
+      <c r="R146">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="S146">
+        <v>0.1583449060198768</v>
+      </c>
+      <c r="T146">
+        <v>0.15232696511509211</v>
+      </c>
+      <c r="U146">
+        <v>0.1583449060198768</v>
+      </c>
+      <c r="V146" t="s">
+        <v>461</v>
+      </c>
+      <c r="W146" t="s">
+        <v>462</v>
+      </c>
+      <c r="X146" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>441</v>
+      </c>
+      <c r="B150">
+        <v>100</v>
+      </c>
+      <c r="C150">
+        <v>8</v>
+      </c>
+      <c r="D150">
+        <v>1E-3</v>
+      </c>
+      <c r="E150">
+        <v>0.2</v>
+      </c>
+      <c r="F150">
+        <v>0.01</v>
+      </c>
+      <c r="G150" t="s">
+        <v>466</v>
+      </c>
+      <c r="I150" t="s">
+        <v>443</v>
+      </c>
+      <c r="L150" t="s">
+        <v>443</v>
+      </c>
+      <c r="O150" t="s">
+        <v>450</v>
+      </c>
+      <c r="P150">
+        <v>0.49411764705882361</v>
+      </c>
+      <c r="Q150">
+        <v>0.45761371755179808</v>
+      </c>
+      <c r="R150">
+        <v>0.49411764705882361</v>
+      </c>
+      <c r="S150">
+        <v>0.13268203919406141</v>
+      </c>
+      <c r="T150">
+        <v>0.14378665462333939</v>
+      </c>
+      <c r="U150">
+        <v>0.13268203919406141</v>
+      </c>
+      <c r="V150" t="s">
+        <v>451</v>
+      </c>
+      <c r="W150" t="s">
+        <v>452</v>
+      </c>
+      <c r="X150" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>441</v>
+      </c>
+      <c r="B152">
+        <v>100</v>
+      </c>
+      <c r="C152">
+        <v>8</v>
+      </c>
+      <c r="D152">
+        <v>1E-3</v>
+      </c>
+      <c r="E152">
+        <v>0.2</v>
+      </c>
+      <c r="F152">
+        <v>0.01</v>
+      </c>
+      <c r="G152" t="s">
+        <v>467</v>
+      </c>
+      <c r="I152" t="s">
+        <v>443</v>
+      </c>
+      <c r="L152" t="s">
+        <v>443</v>
+      </c>
+      <c r="O152" t="s">
+        <v>468</v>
+      </c>
+      <c r="P152">
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="Q152">
+        <v>0.329394780536649</v>
+      </c>
+      <c r="R152">
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="S152">
+        <v>0.10329282742177461</v>
+      </c>
+      <c r="T152">
+        <v>8.403464523761299E-2</v>
+      </c>
+      <c r="U152">
+        <v>0.10329282742177461</v>
+      </c>
+      <c r="V152" t="s">
+        <v>469</v>
+      </c>
+      <c r="W152" t="s">
+        <v>470</v>
+      </c>
+      <c r="X152" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>441</v>
+      </c>
+      <c r="B154">
+        <v>100</v>
+      </c>
+      <c r="C154">
+        <v>8</v>
+      </c>
+      <c r="D154">
+        <v>1E-3</v>
+      </c>
+      <c r="E154">
+        <v>0.2</v>
+      </c>
+      <c r="F154">
+        <v>0.01</v>
+      </c>
+      <c r="G154" t="s">
+        <v>473</v>
+      </c>
+      <c r="I154" t="s">
+        <v>443</v>
+      </c>
+      <c r="L154" t="s">
+        <v>443</v>
+      </c>
+      <c r="O154" t="s">
+        <v>450</v>
+      </c>
+      <c r="P154">
+        <v>0.49411764705882361</v>
+      </c>
+      <c r="Q154">
+        <v>0.45761371755179808</v>
+      </c>
+      <c r="R154">
+        <v>0.49411764705882361</v>
+      </c>
+      <c r="S154">
+        <v>0.13268203919406141</v>
+      </c>
+      <c r="T154">
+        <v>0.14378665462333939</v>
+      </c>
+      <c r="U154">
+        <v>0.13268203919406141</v>
+      </c>
+      <c r="V154" t="s">
+        <v>451</v>
+      </c>
+      <c r="W154" t="s">
+        <v>452</v>
+      </c>
+      <c r="X154" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnz\AppData\Local\Temp\Mxt241\RemoteFiles\656804_3_18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnz\AppData\Local\Temp\Mxt241\RemoteFiles\67852_2_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C26A2A-8BAC-4DBC-ABE7-A0D69204D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3BDD8B-EC39-4802-A497-2481BC1447CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6150" yWindow="1940" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="501">
   <si>
     <t>name</t>
   </si>
@@ -1342,7 +1342,7 @@
     <t>Weight tests, viewing performance of legacy vs new weights</t>
   </si>
   <si>
-    <t>legacy weights</t>
+    <t>legacy weights, small2d</t>
   </si>
   <si>
     <t>Tests/0--/foldn5</t>
@@ -1366,7 +1366,7 @@
     <t>[14, 11, 13, 15, 15]</t>
   </si>
   <si>
-    <t>newer weights</t>
+    <t>newer weights, small2d</t>
   </si>
   <si>
     <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
@@ -1384,6 +1384,9 @@
     <t>[19, 25, 35, 17, 21]</t>
   </si>
   <si>
+    <t>legacy weights, large2d</t>
+  </si>
+  <si>
     <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='legacy weights' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Large2DResnet'</t>
   </si>
   <si>
@@ -1399,6 +1402,9 @@
     <t>[15, 15, 16, 28, 11]</t>
   </si>
   <si>
+    <t>newer weights, large2d</t>
+  </si>
+  <si>
     <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Large2DResnet'</t>
   </si>
   <si>
@@ -1414,15 +1420,18 @@
     <t>[17, 16, 18, 12, 22]</t>
   </si>
   <si>
+    <t>testing Padding on small model with tumor sizes (0 and valid padding seems to perform the same</t>
+  </si>
+  <si>
+    <t>newer weights with padding 0</t>
+  </si>
+  <si>
+    <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights with padding 0' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
+  </si>
+  <si>
     <t>newer weights with padding same</t>
   </si>
   <si>
-    <t>newer weights with padding 0</t>
-  </si>
-  <si>
-    <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights with padding 0' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
-  </si>
-  <si>
     <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights with padding same' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
   </si>
   <si>
@@ -1444,7 +1453,76 @@
     <t>python testSamples26-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='newer weights with padding valid' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2DResnet'</t>
   </si>
   <si>
-    <t>testing Padding on small model with tumor sizes (0 and valid padding seems to perform the same</t>
+    <t>testSamples30-7.py -- Changed f1 and recall to have multilabel scores in the std respectively. ALSO made grouped2D group patient slices togheter rather than treat each slice individually</t>
+  </si>
+  <si>
+    <t>{0: 5.2, 1: 8.0, 2: 3.8}</t>
+  </si>
+  <si>
+    <t>{0: 0.2, 1: 0.4620915032679738, 2: 0.1911111111111111}</t>
+  </si>
+  <si>
+    <t>{0: 0.22000000000000003, 1: 0.5095238095238096, 2: 0.18888888888888888}</t>
+  </si>
+  <si>
+    <t>[0.35294117647058826, 0.5294117647058824, 0.23529411764705882, 0.3333333333333333, 0.25]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.588235294117647, 0.2222222222222222], [0.5714285714285715, 0.5, 0.5333333333333333], [0.0, 0.4444444444444444, 0.0], [0.42857142857142855, 0.3333333333333333, 0.19999999999999998], [0.0, 0.4444444444444444, 0.0]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.7142857142857143, 0.16666666666666666], [0.5, 0.42857142857142855, 0.6666666666666666], [0.0, 0.5714285714285714, 0.0], [0.6, 0.5, 0.1111111111111111], [0.0, 0.3333333333333333, 0.0]]</t>
+  </si>
+  <si>
+    <t>[17, 16, 13, 14, 28]</t>
+  </si>
+  <si>
+    <t>viewing performance on single image</t>
+  </si>
+  <si>
+    <t>python testSamples30-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='viewing performance on single image' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 0.37222222222222223, 1: 0.6069365721997302, 2: 0.3288888888888889}</t>
+  </si>
+  <si>
+    <t>{0: 0.4, 1: 0.7035714285714285, 2: 0.2866666666666667}</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.4210526315789474, 0.4444444444444445], [0.75, 0.7000000000000001, 0.33333333333333337], [0.22222222222222224, 0.6153846153846153, 0.6666666666666666], [0.4444444444444445, 0.631578947368421, 0.0], [0.4444444444444445, 0.6666666666666666, 0.2]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.5, 0.4], [0.75, 0.875, 0.2], [0.25, 0.5714285714285714, 0.6666666666666666], [0.5, 0.8571428571428571, 0.0], [0.5, 0.7142857142857143, 0.16666666666666666]]</t>
+  </si>
+  <si>
+    <t>{0: 1.4, 1: 11.0, 2: 4.6}</t>
+  </si>
+  <si>
+    <t>{0: 0.17142857142857143, 1: 0.5678889531521111, 2: 0.3387301587301587}</t>
+  </si>
+  <si>
+    <t>{0: 0.13999999999999999, 1: 0.7571428571428571, 2: 0.36888888888888893}</t>
+  </si>
+  <si>
+    <t>[0.4117647058823529, 0.5882352941176471, 0.47058823529411764, 0.3333333333333333, 0.4375]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.631578947368421, 0.2222222222222222], [0.5714285714285715, 0.6153846153846153, 0.5714285714285715], [0.0, 0.5714285714285714, 0.5], [0.28571428571428575, 0.4210526315789474, 0.19999999999999998], [0.0, 0.6, 0.2]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.8571428571428571, 0.16666666666666666], [0.5, 0.5714285714285714, 0.6666666666666666], [0.0, 0.8571428571428571, 0.4], [0.2, 1.0, 0.1111111111111111], [0.0, 0.5, 0.5]]</t>
+  </si>
+  <si>
+    <t>viewing performance on grouped2d majourity voting</t>
+  </si>
+  <si>
+    <t>python testSamples30-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='viewing performance on grouped2d majourity voting' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>viewing performance on grouped2d average voting</t>
+  </si>
+  <si>
+    <t>python testSamples30-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='viewing performance on grouped2d average voting' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
   </si>
 </sst>
 </file>
@@ -1784,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y154"/>
+  <dimension ref="A1:Y162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="N167" sqref="N167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9686,7 +9764,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.35">
@@ -9709,7 +9787,7 @@
         <v>0.01</v>
       </c>
       <c r="G144" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I144" t="s">
         <v>443</v>
@@ -9718,7 +9796,7 @@
         <v>443</v>
       </c>
       <c r="O144" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P144">
         <v>0.3411764705882353</v>
@@ -9739,21 +9817,21 @@
         <v>0.18905691592541149</v>
       </c>
       <c r="V144" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="W144" t="s">
+        <v>458</v>
+      </c>
+      <c r="X144" t="s">
         <v>457</v>
       </c>
-      <c r="X144" t="s">
-        <v>456</v>
-      </c>
       <c r="Y144" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.35">
@@ -9776,7 +9854,7 @@
         <v>0.01</v>
       </c>
       <c r="G146" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I146" t="s">
         <v>443</v>
@@ -9785,7 +9863,7 @@
         <v>443</v>
       </c>
       <c r="O146" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P146">
         <v>0.3411764705882353</v>
@@ -9806,26 +9884,26 @@
         <v>0.1583449060198768</v>
       </c>
       <c r="V146" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="W146" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="X146" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Y146" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.35">
@@ -9848,7 +9926,7 @@
         <v>0.01</v>
       </c>
       <c r="G150" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I150" t="s">
         <v>443</v>
@@ -9892,7 +9970,7 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.35">
@@ -9915,7 +9993,7 @@
         <v>0.01</v>
       </c>
       <c r="G152" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I152" t="s">
         <v>443</v>
@@ -9924,7 +10002,7 @@
         <v>443</v>
       </c>
       <c r="O152" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P152">
         <v>0.35294117647058831</v>
@@ -9945,21 +10023,21 @@
         <v>0.10329282742177461</v>
       </c>
       <c r="V152" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="W152" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="X152" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Y152" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.35">
@@ -9982,7 +10060,7 @@
         <v>0.01</v>
       </c>
       <c r="G154" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I154" t="s">
         <v>443</v>
@@ -10021,6 +10099,212 @@
         <v>451</v>
       </c>
       <c r="Y154" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>441</v>
+      </c>
+      <c r="B158">
+        <v>100</v>
+      </c>
+      <c r="C158">
+        <v>8</v>
+      </c>
+      <c r="D158">
+        <v>1E-3</v>
+      </c>
+      <c r="E158">
+        <v>0.2</v>
+      </c>
+      <c r="F158">
+        <v>0.01</v>
+      </c>
+      <c r="G158" t="s">
+        <v>498</v>
+      </c>
+      <c r="I158" t="s">
+        <v>443</v>
+      </c>
+      <c r="L158" t="s">
+        <v>443</v>
+      </c>
+      <c r="O158" t="s">
+        <v>478</v>
+      </c>
+      <c r="P158">
+        <v>0.34019607843137262</v>
+      </c>
+      <c r="Q158">
+        <v>0.284400871459695</v>
+      </c>
+      <c r="R158">
+        <v>0.30613756613756621</v>
+      </c>
+      <c r="S158">
+        <v>0.14579888192247431</v>
+      </c>
+      <c r="T158" t="s">
+        <v>479</v>
+      </c>
+      <c r="U158" t="s">
+        <v>480</v>
+      </c>
+      <c r="V158" t="s">
+        <v>481</v>
+      </c>
+      <c r="W158" t="s">
+        <v>482</v>
+      </c>
+      <c r="X158" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>441</v>
+      </c>
+      <c r="B160">
+        <v>100</v>
+      </c>
+      <c r="C160">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>1E-3</v>
+      </c>
+      <c r="E160">
+        <v>0.2</v>
+      </c>
+      <c r="F160">
+        <v>0.01</v>
+      </c>
+      <c r="G160" t="s">
+        <v>500</v>
+      </c>
+      <c r="I160" t="s">
+        <v>443</v>
+      </c>
+      <c r="L160" t="s">
+        <v>443</v>
+      </c>
+      <c r="O160" t="s">
+        <v>491</v>
+      </c>
+      <c r="P160">
+        <v>0.44828431372549021</v>
+      </c>
+      <c r="Q160">
+        <v>0.35934922777028039</v>
+      </c>
+      <c r="R160">
+        <v>0.422010582010582</v>
+      </c>
+      <c r="S160">
+        <v>0.1157272360436034</v>
+      </c>
+      <c r="T160" t="s">
+        <v>492</v>
+      </c>
+      <c r="U160" t="s">
+        <v>493</v>
+      </c>
+      <c r="V160" t="s">
+        <v>494</v>
+      </c>
+      <c r="W160" t="s">
+        <v>495</v>
+      </c>
+      <c r="X160" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>441</v>
+      </c>
+      <c r="B162">
+        <v>100</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>1E-3</v>
+      </c>
+      <c r="E162">
+        <v>0.2</v>
+      </c>
+      <c r="F162">
+        <v>0.01</v>
+      </c>
+      <c r="G162" t="s">
+        <v>486</v>
+      </c>
+      <c r="I162" t="s">
+        <v>443</v>
+      </c>
+      <c r="L162" t="s">
+        <v>443</v>
+      </c>
+      <c r="O162" t="s">
+        <v>450</v>
+      </c>
+      <c r="P162">
+        <v>0.49411764705882361</v>
+      </c>
+      <c r="Q162">
+        <v>0.43601589443694722</v>
+      </c>
+      <c r="R162">
+        <v>0.46341269841269839</v>
+      </c>
+      <c r="S162">
+        <v>0.13268203919406141</v>
+      </c>
+      <c r="T162" t="s">
+        <v>487</v>
+      </c>
+      <c r="U162" t="s">
+        <v>488</v>
+      </c>
+      <c r="V162" t="s">
+        <v>451</v>
+      </c>
+      <c r="W162" t="s">
+        <v>489</v>
+      </c>
+      <c r="X162" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y162" t="s">
         <v>453</v>
       </c>
     </row>

--- a/testResults.xlsx
+++ b/testResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnz\AppData\Local\Temp\Mxt241\RemoteFiles\67852_2_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnz\AppData\Local\Temp\Mxt241\RemoteFiles\395526_2_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3BDD8B-EC39-4802-A497-2481BC1447CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0C4CFE-4B84-48CF-A07E-88DD67372292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="1940" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="584">
   <si>
     <t>name</t>
   </si>
@@ -1456,6 +1456,12 @@
     <t>testSamples30-7.py -- Changed f1 and recall to have multilabel scores in the std respectively. ALSO made grouped2D group patient slices togheter rather than treat each slice individually</t>
   </si>
   <si>
+    <t>viewing performance on grouped2d majourity voting</t>
+  </si>
+  <si>
+    <t>python testSamples30-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='viewing performance on grouped2d majourity voting' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+  </si>
+  <si>
     <t>{0: 5.2, 1: 8.0, 2: 3.8}</t>
   </si>
   <si>
@@ -1477,6 +1483,30 @@
     <t>[17, 16, 13, 14, 28]</t>
   </si>
   <si>
+    <t>viewing performance on grouped2d average voting</t>
+  </si>
+  <si>
+    <t>python testSamples30-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='viewing performance on grouped2d average voting' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 1.4, 1: 11.0, 2: 4.6}</t>
+  </si>
+  <si>
+    <t>{0: 0.17142857142857143, 1: 0.5678889531521111, 2: 0.3387301587301587}</t>
+  </si>
+  <si>
+    <t>{0: 0.13999999999999999, 1: 0.7571428571428571, 2: 0.36888888888888893}</t>
+  </si>
+  <si>
+    <t>[0.4117647058823529, 0.5882352941176471, 0.47058823529411764, 0.3333333333333333, 0.4375]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.631578947368421, 0.2222222222222222], [0.5714285714285715, 0.6153846153846153, 0.5714285714285715], [0.0, 0.5714285714285714, 0.5], [0.28571428571428575, 0.4210526315789474, 0.19999999999999998], [0.0, 0.6, 0.2]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.8571428571428571, 0.16666666666666666], [0.5, 0.5714285714285714, 0.6666666666666666], [0.0, 0.8571428571428571, 0.4], [0.2, 1.0, 0.1111111111111111], [0.0, 0.5, 0.5]]</t>
+  </si>
+  <si>
     <t>viewing performance on single image</t>
   </si>
   <si>
@@ -1495,34 +1525,253 @@
     <t>[[0.0, 0.5, 0.4], [0.75, 0.875, 0.2], [0.25, 0.5714285714285714, 0.6666666666666666], [0.5, 0.8571428571428571, 0.0], [0.5, 0.7142857142857143, 0.16666666666666666]]</t>
   </si>
   <si>
-    <t>{0: 1.4, 1: 11.0, 2: 4.6}</t>
-  </si>
-  <si>
-    <t>{0: 0.17142857142857143, 1: 0.5678889531521111, 2: 0.3387301587301587}</t>
-  </si>
-  <si>
-    <t>{0: 0.13999999999999999, 1: 0.7571428571428571, 2: 0.36888888888888893}</t>
-  </si>
-  <si>
-    <t>[0.4117647058823529, 0.5882352941176471, 0.47058823529411764, 0.3333333333333333, 0.4375]</t>
-  </si>
-  <si>
-    <t>[[0.0, 0.631578947368421, 0.2222222222222222], [0.5714285714285715, 0.6153846153846153, 0.5714285714285715], [0.0, 0.5714285714285714, 0.5], [0.28571428571428575, 0.4210526315789474, 0.19999999999999998], [0.0, 0.6, 0.2]]</t>
-  </si>
-  <si>
-    <t>[[0.0, 0.8571428571428571, 0.16666666666666666], [0.5, 0.5714285714285714, 0.6666666666666666], [0.0, 0.8571428571428571, 0.4], [0.2, 1.0, 0.1111111111111111], [0.0, 0.5, 0.5]]</t>
-  </si>
-  <si>
-    <t>viewing performance on grouped2d majourity voting</t>
-  </si>
-  <si>
-    <t>python testSamples30-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='viewing performance on grouped2d majourity voting' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
-  </si>
-  <si>
-    <t>viewing performance on grouped2d average voting</t>
-  </si>
-  <si>
-    <t>python testSamples30-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='viewing performance on grouped2d average voting' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+    <t>testSamples31-7.py viewing performance on RGB images</t>
+  </si>
+  <si>
+    <t>On Small model</t>
+  </si>
+  <si>
+    <t>RGB on single image</t>
+  </si>
+  <si>
+    <t>python testSamples31-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='RGB on single image' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 3.6, 1: 7.2, 2: 6.2}</t>
+  </si>
+  <si>
+    <t>{0: 0.2333333333333333, 1: 0.45874003189792656, 2: 0.34247086247086245}</t>
+  </si>
+  <si>
+    <t>{0: 0.25, 1: 0.45714285714285713, 2: 0.3866666666666666}</t>
+  </si>
+  <si>
+    <t>[0.23529411764705882, 0.47058823529411764, 0.17647058823529413, 0.5882352941176471, 0.47058823529411764]</t>
+  </si>
+  <si>
+    <t>[[0.25, 0.25, 0.20000000000000004], [0.0, 0.631578947368421, 0.3636363636363636], [0.16666666666666666, 0.3333333333333333, 0.0], [0.75, 0.5454545454545454, 0.5333333333333333], [0.0, 0.5333333333333333, 0.6153846153846153]]</t>
+  </si>
+  <si>
+    <t>[[0.25, 0.25, 0.2], [0.0, 0.75, 0.4], [0.25, 0.2857142857142857, 0.0], [0.75, 0.42857142857142855, 0.6666666666666666], [0.0, 0.5714285714285714, 0.6666666666666666]]</t>
+  </si>
+  <si>
+    <t>[16, 16, 14, 37, 28]</t>
+  </si>
+  <si>
+    <t>RGB on average voting</t>
+  </si>
+  <si>
+    <t>python testSamples31-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='RGB on average voting' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 0.8, 1: 11.2, 2: 5.0}</t>
+  </si>
+  <si>
+    <t>{0: 0.0, 1: 0.528421052631579, 2: 0.41230769230769226}</t>
+  </si>
+  <si>
+    <t>{0: 0.0, 1: 0.7166666666666667, 2: 0.42444444444444446}</t>
+  </si>
+  <si>
+    <t>[0.35294117647058826, 0.5882352941176471, 0.35294117647058826, 0.3333333333333333, 0.5]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.39999999999999997, 0.4615384615384615], [0.0, 0.7000000000000001, 0.6], [0.0, 0.4210526315789474, 0.4444444444444445], [0.0, 0.4210526315789474, 0.3333333333333333], [0.0, 0.7000000000000001, 0.22222222222222224]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.42857142857142855, 0.5], [0.0, 1.0, 0.5], [0.0, 0.5714285714285714, 0.4], [0.0, 1.0, 0.2222222222222222], [0.0, 0.5833333333333334, 0.5]]</t>
+  </si>
+  <si>
+    <t>[12, 14, 13, 11, 13]</t>
+  </si>
+  <si>
+    <t>RGB on majourity voting</t>
+  </si>
+  <si>
+    <t>python testSamples31-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='RGB on majourity voting' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 3.6, 1: 9.8, 2: 3.6}</t>
+  </si>
+  <si>
+    <t>{0: 0.1015873015873016, 1: 0.48402132782937735, 2: 0.2098701298701299}</t>
+  </si>
+  <si>
+    <t>{0: 0.09, 1: 0.5833333333333333, 2: 0.17333333333333334}</t>
+  </si>
+  <si>
+    <t>[0.35294117647058826, 0.47058823529411764, 0.4117647058823529, 0.1111111111111111, 0.3125]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.5, 0.3636363636363636], [0.28571428571428575, 0.588235294117647, 0.4], [0.22222222222222224, 0.5555555555555556, 0.28571428571428575], [0.0, 0.25, 0.0], [0.0, 0.5263157894736842, 0.0]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.5714285714285714, 0.3333333333333333], [0.25, 0.7142857142857143, 0.3333333333333333], [0.2, 0.7142857142857143, 0.2], [0.0, 0.5, 0.0], [0.0, 0.4166666666666667, 0.0]]</t>
+  </si>
+  <si>
+    <t>On large model</t>
+  </si>
+  <si>
+    <t>RGB on single image no layer freezing</t>
+  </si>
+  <si>
+    <t>python testSamples31-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='RGB on single image no layer freezing' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 3.2, 1: 10.8, 2: 3.0}</t>
+  </si>
+  <si>
+    <t>{0: 0.1511111111111111, 1: 0.5203361344537816, 2: 0.24945054945054945}</t>
+  </si>
+  <si>
+    <t>{0: 0.15, 1: 0.6535714285714286, 2: 0.20666666666666664}</t>
+  </si>
+  <si>
+    <t>[0.29411764705882354, 0.4117647058823529, 0.4117647058823529, 0.47058823529411764, 0.35294117647058826]</t>
+  </si>
+  <si>
+    <t>[[0.2, 0.47058823529411764, 0.0], [0.22222222222222224, 0.5882352941176471, 0.25], [0.0, 0.5714285714285714, 0.25], [0.3333333333333333, 0.5714285714285714, 0.2857142857142857], [0.0, 0.39999999999999997, 0.4615384615384615]]</t>
+  </si>
+  <si>
+    <t>[[0.25, 0.5, 0.0], [0.25, 0.625, 0.2], [0.0, 0.8571428571428571, 0.16666666666666666], [0.25, 0.8571428571428571, 0.16666666666666666], [0.0, 0.42857142857142855, 0.5]]</t>
+  </si>
+  <si>
+    <t>[18, 19, 11, 27, 13]</t>
+  </si>
+  <si>
+    <t>RGB on average voting  no layer freezing</t>
+  </si>
+  <si>
+    <t>python testSamples31-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='RGB on average voting  no layer freezing' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 0.4, 1: 14.0, 2: 2.6}</t>
+  </si>
+  <si>
+    <t>{0: 0.0, 1: 0.48949975949975943, 2: 0.05333333333333333}</t>
+  </si>
+  <si>
+    <t>{0: 0.0, 1: 0.7547619047619047, 2: 0.08}</t>
+  </si>
+  <si>
+    <t>[0.23529411764705882, 0.4117647058823529, 0.23529411764705882, 0.2222222222222222, 0.6875]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.4, 0.0], [0.0, 0.5833333333333334, 0.0], [0.0, 0.2857142857142857, 0.26666666666666666], [0.0, 0.3636363636363636, 0.0], [0.0, 0.8148148148148148, 0.0]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.5714285714285714, 0.0], [0.0, 1.0, 0.0], [0.0, 0.2857142857142857, 0.4], [0.0, 1.0, 0.0], [0.0, 0.9166666666666666, 0.0]]</t>
+  </si>
+  <si>
+    <t>[27, 23, 13, 11, 21]</t>
+  </si>
+  <si>
+    <t>RGB on majourity voting no layer freezing</t>
+  </si>
+  <si>
+    <t>python testSamples31-7.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='RGB on majourity voting no layer freezing' -hasBackground=f -usesLargestBox=f -segmentsMultiple=13 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 13.6, 1: 3.4, 2: 0.0}</t>
+  </si>
+  <si>
+    <t>{0: 0.3920074696545285, 1: 0.2363636363636364, 2: 0.0}</t>
+  </si>
+  <si>
+    <t>{0: 0.8699999999999999, 1: 0.2642857142857143, 2: 0.0}</t>
+  </si>
+  <si>
+    <t>[0.23529411764705882, 0.23529411764705882, 0.4117647058823529, 0.3888888888888889, 0.125]</t>
+  </si>
+  <si>
+    <t>[[0.3529411764705882, 0.18181818181818182, 0.0], [0.38095238095238093, 0.0, 0.0], [0.47058823529411764, 0.5, 0.0], [0.5333333333333333, 0.5, 0.0], [0.2222222222222222, 0.0, 0.0]]</t>
+  </si>
+  <si>
+    <t>[[0.75, 0.14285714285714285, 0.0], [1.0, 0.0, 0.0], [0.8, 0.42857142857142855, 0.0], [0.8, 0.75, 0.0], [1.0, 0.0, 0.0]]</t>
+  </si>
+  <si>
+    <t>[23, 16, 11, 16, 11]</t>
+  </si>
+  <si>
+    <t>python testSamples31-7-224x224.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='RGB on majourity voting no layer freezing' -hasBackground=f -usesLargestBox=f -segmentsMultiple=12 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 8.2, 1: 5.6, 2: 3.2}</t>
+  </si>
+  <si>
+    <t>{0: 0.3875990675990676, 1: 0.4793939393939394, 2: 0.22666666666666666}</t>
+  </si>
+  <si>
+    <t>{0: 0.6, 1: 0.4404761904761904, 2: 0.18444444444444444}</t>
+  </si>
+  <si>
+    <t>[0.35294117647058826, 0.5882352941176471, 0.29411764705882354, 0.3888888888888889, 0.375]</t>
+  </si>
+  <si>
+    <t>[[0.36363636363636365, 0.5333333333333333, 0.0], [0.6666666666666666, 0.5, 0.6], [0.3076923076923077, 0.36363636363636365, 0.20000000000000004], [0.4, 0.4444444444444445, 0.3333333333333333], [0.2, 0.5555555555555556, 0.0]]</t>
+  </si>
+  <si>
+    <t>[[0.5, 0.5714285714285714, 0.0], [1.0, 0.42857142857142855, 0.5], [0.4, 0.2857142857142857, 0.2], [0.6, 0.5, 0.2222222222222222], [0.5, 0.4166666666666667, 0.0]]</t>
+  </si>
+  <si>
+    <t>[11, 17, 14, 17, 23]</t>
+  </si>
+  <si>
+    <t>updated images with average voting</t>
+  </si>
+  <si>
+    <t>python testSamples31-7-224x224.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='updated images with average voting' -hasBackground=f -usesLargestBox=f -segmentsMultiple=12 -dropoutRate=0.2 -grouped2D=t -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 3.0, 1: 9.2, 2: 4.8}</t>
+  </si>
+  <si>
+    <t>{0: 0.2525974025974026, 1: 0.5806015037593986, 2: 0.39048951048951047}</t>
+  </si>
+  <si>
+    <t>{0: 0.27999999999999997, 1: 0.7, 2: 0.3466666666666666}</t>
+  </si>
+  <si>
+    <t>[0.47058823529411764, 0.7058823529411765, 0.4117647058823529, 0.4444444444444444, 0.375]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.631578947368421, 0.4], [0.7272727272727273, 0.6666666666666666, 0.7272727272727272], [0.28571428571428575, 0.5, 0.3636363636363636], [0.25, 0.5333333333333333, 0.46153846153846156], [0.0, 0.5714285714285715, 0.0]]</t>
+  </si>
+  <si>
+    <t>[[0.0, 0.8571428571428571, 0.3333333333333333], [1.0, 0.5714285714285714, 0.6666666666666666], [0.2, 0.5714285714285714, 0.4], [0.2, 1.0, 0.3333333333333333], [0.0, 0.5, 0.0]]</t>
+  </si>
+  <si>
+    <t>updated images with single largest</t>
+  </si>
+  <si>
+    <t>python testSamples31-7-224x224.py -batchSize=8 -epochs=100 -lr=0.001 -evalDetailLine='updated images with single largest' -hasBackground=f -usesLargestBox=f -segmentsMultiple=1 -dropoutRate=0.2 -grouped2D=f -modelChosen='Small2D'</t>
+  </si>
+  <si>
+    <t>{0: 4.4, 1: 7.0, 2: 5.6}</t>
+  </si>
+  <si>
+    <t>{0: 0.44761904761904764, 1: 0.4451098901098901, 2: 0.35277389277389276}</t>
+  </si>
+  <si>
+    <t>{0: 0.5, 1: 0.4392857142857142, 2: 0.3466666666666666}</t>
+  </si>
+  <si>
+    <t>[0.29411764705882354, 0.23529411764705882, 0.5294117647058824, 0.5882352941176471, 0.47058823529411764]</t>
+  </si>
+  <si>
+    <t>[[0.4, 0.3076923076923077, 0.1818181818181818], [0.0, 0.375, 0.16666666666666666], [0.6, 0.5714285714285714, 0.4], [0.5714285714285715, 0.5714285714285714, 0.6153846153846153], [0.6666666666666665, 0.39999999999999997, 0.4]]</t>
+  </si>
+  <si>
+    <t>[[0.5, 0.25, 0.2], [0.0, 0.375, 0.2], [0.75, 0.5714285714285714, 0.3333333333333333], [0.5, 0.5714285714285714, 0.6666666666666666], [0.75, 0.42857142857142855, 0.3333333333333333]]</t>
+  </si>
+  <si>
+    <t>[17, 19, 24, 18, 21]</t>
+  </si>
+  <si>
+    <t>updated images with majourity voting</t>
+  </si>
+  <si>
+    <t>testSamples31-7-224x224.py  images are resized to 224x224</t>
   </si>
 </sst>
 </file>
@@ -1862,15 +2111,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y162"/>
+  <dimension ref="A1:Y187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="N167" sqref="N167"/>
+    <sheetView tabSelected="1" topLeftCell="F181" workbookViewId="0">
+      <selection activeCell="S185" sqref="S185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1947,12 +2196,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2017,7 +2266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2088,7 +2337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2159,7 +2408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -2230,7 +2479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2301,7 +2550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2372,7 +2621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2434,7 +2683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2502,7 +2751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2570,7 +2819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2638,7 +2887,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2706,7 +2955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2774,7 +3023,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2836,7 +3085,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2904,7 +3153,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2972,7 +3221,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3040,7 +3289,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -3108,7 +3357,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -3176,12 +3425,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -3189,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3251,7 +3500,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -3319,7 +3568,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3387,7 +3636,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -3455,7 +3704,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -3520,7 +3769,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -3585,7 +3834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3647,7 +3896,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3715,7 +3964,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3783,7 +4032,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -3851,7 +4100,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -3919,7 +4168,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -3987,7 +4236,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -4049,7 +4298,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -4117,7 +4366,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4185,7 +4434,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -4253,7 +4502,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -4321,7 +4570,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -4389,7 +4638,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -4451,7 +4700,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -4519,7 +4768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -4587,7 +4836,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4655,7 +4904,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4723,7 +4972,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -4791,7 +5040,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -4853,7 +5102,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -4921,7 +5170,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -4989,7 +5238,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -5057,7 +5306,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5125,7 +5374,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -5193,7 +5442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -5255,7 +5504,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -5323,7 +5572,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -5391,7 +5640,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -5459,7 +5708,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -5527,7 +5776,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -5595,7 +5844,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -5657,7 +5906,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -5725,7 +5974,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -5793,7 +6042,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -5861,7 +6110,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -5929,7 +6178,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -5997,17 +6246,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -6075,7 +6324,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -6149,7 +6398,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -6223,7 +6472,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>49</v>
       </c>
@@ -6297,7 +6546,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>57</v>
       </c>
@@ -6371,7 +6620,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>65</v>
       </c>
@@ -6445,12 +6694,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -6518,7 +6767,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -6592,7 +6841,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -6666,7 +6915,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -6740,7 +6989,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -6814,7 +7063,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>65</v>
       </c>
@@ -6888,12 +7137,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -6961,7 +7210,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -7035,7 +7284,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -7109,7 +7358,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>49</v>
       </c>
@@ -7183,7 +7432,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -7257,7 +7506,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>65</v>
       </c>
@@ -7331,12 +7580,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -7404,7 +7653,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -7478,7 +7727,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -7552,7 +7801,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>49</v>
       </c>
@@ -7626,7 +7875,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -7700,7 +7949,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>65</v>
       </c>
@@ -7774,17 +8023,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -7855,7 +8104,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -7932,7 +8181,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>41</v>
       </c>
@@ -8009,7 +8258,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>49</v>
       </c>
@@ -8086,7 +8335,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -8163,7 +8412,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>65</v>
       </c>
@@ -8240,12 +8489,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -8316,7 +8565,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -8393,7 +8642,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -8470,7 +8719,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>49</v>
       </c>
@@ -8547,7 +8796,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>57</v>
       </c>
@@ -8624,7 +8873,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -8701,12 +8950,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -8777,7 +9026,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -8854,7 +9103,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>41</v>
       </c>
@@ -8931,7 +9180,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -9008,7 +9257,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>57</v>
       </c>
@@ -9085,7 +9334,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -9162,12 +9411,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -9238,7 +9487,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>33</v>
       </c>
@@ -9315,7 +9564,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -9392,7 +9641,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>49</v>
       </c>
@@ -9469,7 +9718,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>57</v>
       </c>
@@ -9546,7 +9795,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -9623,17 +9872,17 @@
         <v>438</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>441</v>
       </c>
@@ -9695,12 +9944,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -9762,12 +10011,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>441</v>
       </c>
@@ -9829,12 +10078,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>441</v>
       </c>
@@ -9896,17 +10145,17 @@
         <v>465</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>441</v>
       </c>
@@ -9968,12 +10217,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>441</v>
       </c>
@@ -10035,12 +10284,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>441</v>
       </c>
@@ -10102,17 +10351,17 @@
         <v>453</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>441</v>
       </c>
@@ -10132,7 +10381,7 @@
         <v>0.01</v>
       </c>
       <c r="G158" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="I158" t="s">
         <v>443</v>
@@ -10141,7 +10390,7 @@
         <v>443</v>
       </c>
       <c r="O158" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P158">
         <v>0.34019607843137262</v>
@@ -10156,30 +10405,30 @@
         <v>0.14579888192247431</v>
       </c>
       <c r="T158" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="U158" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="V158" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="W158" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="X158" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Y158" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>441</v>
       </c>
@@ -10199,7 +10448,7 @@
         <v>0.01</v>
       </c>
       <c r="G160" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="I160" t="s">
         <v>443</v>
@@ -10208,7 +10457,7 @@
         <v>443</v>
       </c>
       <c r="O160" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="P160">
         <v>0.44828431372549021</v>
@@ -10223,30 +10472,30 @@
         <v>0.1157272360436034</v>
       </c>
       <c r="T160" t="s">
+        <v>490</v>
+      </c>
+      <c r="U160" t="s">
+        <v>491</v>
+      </c>
+      <c r="V160" t="s">
         <v>492</v>
       </c>
-      <c r="U160" t="s">
+      <c r="W160" t="s">
         <v>493</v>
       </c>
-      <c r="V160" t="s">
+      <c r="X160" t="s">
         <v>494</v>
       </c>
-      <c r="W160" t="s">
+      <c r="Y160" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>495</v>
       </c>
-      <c r="X160" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y160" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>441</v>
       </c>
@@ -10266,7 +10515,7 @@
         <v>0.01</v>
       </c>
       <c r="G162" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="I162" t="s">
         <v>443</v>
@@ -10290,22 +10539,645 @@
         <v>0.13268203919406141</v>
       </c>
       <c r="T162" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="U162" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="V162" t="s">
         <v>451</v>
       </c>
       <c r="W162" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="X162" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="Y162" t="s">
         <v>453</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>441</v>
+      </c>
+      <c r="B167">
+        <v>100</v>
+      </c>
+      <c r="C167">
+        <v>8</v>
+      </c>
+      <c r="D167">
+        <v>1E-3</v>
+      </c>
+      <c r="E167">
+        <v>0.2</v>
+      </c>
+      <c r="F167">
+        <v>0.01</v>
+      </c>
+      <c r="G167" t="s">
+        <v>504</v>
+      </c>
+      <c r="I167" t="s">
+        <v>443</v>
+      </c>
+      <c r="L167" t="s">
+        <v>443</v>
+      </c>
+      <c r="O167" t="s">
+        <v>505</v>
+      </c>
+      <c r="P167">
+        <v>0.38823529411764712</v>
+      </c>
+      <c r="Q167">
+        <v>0.34484807590070748</v>
+      </c>
+      <c r="R167">
+        <v>0.36460317460317448</v>
+      </c>
+      <c r="S167">
+        <v>0.2166688627049394</v>
+      </c>
+      <c r="T167" t="s">
+        <v>506</v>
+      </c>
+      <c r="U167" t="s">
+        <v>507</v>
+      </c>
+      <c r="V167" t="s">
+        <v>508</v>
+      </c>
+      <c r="W167" t="s">
+        <v>509</v>
+      </c>
+      <c r="X167" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>441</v>
+      </c>
+      <c r="B169">
+        <v>100</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>1E-3</v>
+      </c>
+      <c r="E169">
+        <v>0.2</v>
+      </c>
+      <c r="F169">
+        <v>0.01</v>
+      </c>
+      <c r="G169" t="s">
+        <v>513</v>
+      </c>
+      <c r="I169" t="s">
+        <v>443</v>
+      </c>
+      <c r="L169" t="s">
+        <v>443</v>
+      </c>
+      <c r="O169" t="s">
+        <v>514</v>
+      </c>
+      <c r="P169">
+        <v>0.42549019607843142</v>
+      </c>
+      <c r="Q169">
+        <v>0.31357624831309039</v>
+      </c>
+      <c r="R169">
+        <v>0.38037037037037041</v>
+      </c>
+      <c r="S169">
+        <v>0.140282324881181</v>
+      </c>
+      <c r="T169" t="s">
+        <v>515</v>
+      </c>
+      <c r="U169" t="s">
+        <v>516</v>
+      </c>
+      <c r="V169" t="s">
+        <v>517</v>
+      </c>
+      <c r="W169" t="s">
+        <v>518</v>
+      </c>
+      <c r="X169" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>441</v>
+      </c>
+      <c r="B171">
+        <v>100</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+      <c r="D171">
+        <v>1E-3</v>
+      </c>
+      <c r="E171">
+        <v>0.2</v>
+      </c>
+      <c r="F171">
+        <v>0.01</v>
+      </c>
+      <c r="G171" t="s">
+        <v>522</v>
+      </c>
+      <c r="I171" t="s">
+        <v>443</v>
+      </c>
+      <c r="L171" t="s">
+        <v>443</v>
+      </c>
+      <c r="O171" t="s">
+        <v>523</v>
+      </c>
+      <c r="P171">
+        <v>0.33178104575163397</v>
+      </c>
+      <c r="Q171">
+        <v>0.26515958642893628</v>
+      </c>
+      <c r="R171">
+        <v>0.28222222222222221</v>
+      </c>
+      <c r="S171">
+        <v>0.1702252415429604</v>
+      </c>
+      <c r="T171" t="s">
+        <v>524</v>
+      </c>
+      <c r="U171" t="s">
+        <v>525</v>
+      </c>
+      <c r="V171" t="s">
+        <v>526</v>
+      </c>
+      <c r="W171" t="s">
+        <v>527</v>
+      </c>
+      <c r="X171" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>441</v>
+      </c>
+      <c r="B175">
+        <v>100</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>1E-3</v>
+      </c>
+      <c r="E175">
+        <v>0.2</v>
+      </c>
+      <c r="F175">
+        <v>0.01</v>
+      </c>
+      <c r="G175" t="s">
+        <v>531</v>
+      </c>
+      <c r="I175" t="s">
+        <v>443</v>
+      </c>
+      <c r="L175" t="s">
+        <v>443</v>
+      </c>
+      <c r="O175" t="s">
+        <v>532</v>
+      </c>
+      <c r="P175">
+        <v>0.38823529411764712</v>
+      </c>
+      <c r="Q175">
+        <v>0.30696593167181402</v>
+      </c>
+      <c r="R175">
+        <v>0.33674603174603168</v>
+      </c>
+      <c r="S175">
+        <v>8.3277339822486737E-2</v>
+      </c>
+      <c r="T175" t="s">
+        <v>533</v>
+      </c>
+      <c r="U175" t="s">
+        <v>534</v>
+      </c>
+      <c r="V175" t="s">
+        <v>535</v>
+      </c>
+      <c r="W175" t="s">
+        <v>536</v>
+      </c>
+      <c r="X175" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>441</v>
+      </c>
+      <c r="B177">
+        <v>100</v>
+      </c>
+      <c r="C177">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>1E-3</v>
+      </c>
+      <c r="E177">
+        <v>0.2</v>
+      </c>
+      <c r="F177">
+        <v>0.01</v>
+      </c>
+      <c r="G177" t="s">
+        <v>540</v>
+      </c>
+      <c r="I177" t="s">
+        <v>443</v>
+      </c>
+      <c r="L177" t="s">
+        <v>443</v>
+      </c>
+      <c r="O177" t="s">
+        <v>541</v>
+      </c>
+      <c r="P177">
+        <v>0.35841503267973862</v>
+      </c>
+      <c r="Q177">
+        <v>0.18094436427769761</v>
+      </c>
+      <c r="R177">
+        <v>0.27825396825396831</v>
+      </c>
+      <c r="S177">
+        <v>0.2483398649221408</v>
+      </c>
+      <c r="T177" t="s">
+        <v>542</v>
+      </c>
+      <c r="U177" t="s">
+        <v>543</v>
+      </c>
+      <c r="V177" t="s">
+        <v>544</v>
+      </c>
+      <c r="W177" t="s">
+        <v>545</v>
+      </c>
+      <c r="X177" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>441</v>
+      </c>
+      <c r="B179">
+        <v>100</v>
+      </c>
+      <c r="C179">
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <v>1E-3</v>
+      </c>
+      <c r="E179">
+        <v>0.2</v>
+      </c>
+      <c r="F179">
+        <v>0.01</v>
+      </c>
+      <c r="G179" t="s">
+        <v>549</v>
+      </c>
+      <c r="I179" t="s">
+        <v>443</v>
+      </c>
+      <c r="L179" t="s">
+        <v>443</v>
+      </c>
+      <c r="O179" t="s">
+        <v>550</v>
+      </c>
+      <c r="P179">
+        <v>0.2792483660130719</v>
+      </c>
+      <c r="Q179">
+        <v>0.20945703533938831</v>
+      </c>
+      <c r="R179">
+        <v>0.37809523809523798</v>
+      </c>
+      <c r="S179">
+        <v>0.14853090605805799</v>
+      </c>
+      <c r="T179" t="s">
+        <v>551</v>
+      </c>
+      <c r="U179" t="s">
+        <v>552</v>
+      </c>
+      <c r="V179" t="s">
+        <v>553</v>
+      </c>
+      <c r="W179" t="s">
+        <v>554</v>
+      </c>
+      <c r="X179" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>441</v>
+      </c>
+      <c r="B183">
+        <v>100</v>
+      </c>
+      <c r="C183">
+        <v>8</v>
+      </c>
+      <c r="D183">
+        <v>1E-3</v>
+      </c>
+      <c r="E183">
+        <v>0.2</v>
+      </c>
+      <c r="F183">
+        <v>0.01</v>
+      </c>
+      <c r="G183" t="s">
+        <v>557</v>
+      </c>
+      <c r="I183" t="s">
+        <v>443</v>
+      </c>
+      <c r="L183" t="s">
+        <v>443</v>
+      </c>
+      <c r="O183" t="s">
+        <v>558</v>
+      </c>
+      <c r="P183">
+        <v>0.39983660130718962</v>
+      </c>
+      <c r="Q183">
+        <v>0.36455322455322448</v>
+      </c>
+      <c r="R183">
+        <v>0.40830687830687817</v>
+      </c>
+      <c r="S183">
+        <v>0.13827484763710329</v>
+      </c>
+      <c r="T183" t="s">
+        <v>559</v>
+      </c>
+      <c r="U183" t="s">
+        <v>560</v>
+      </c>
+      <c r="V183" t="s">
+        <v>561</v>
+      </c>
+      <c r="W183" t="s">
+        <v>562</v>
+      </c>
+      <c r="X183" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>441</v>
+      </c>
+      <c r="B185">
+        <v>100</v>
+      </c>
+      <c r="C185">
+        <v>8</v>
+      </c>
+      <c r="D185">
+        <v>1E-3</v>
+      </c>
+      <c r="E185">
+        <v>0.2</v>
+      </c>
+      <c r="F185">
+        <v>0.01</v>
+      </c>
+      <c r="G185" t="s">
+        <v>566</v>
+      </c>
+      <c r="I185" t="s">
+        <v>443</v>
+      </c>
+      <c r="L185" t="s">
+        <v>443</v>
+      </c>
+      <c r="O185" t="s">
+        <v>567</v>
+      </c>
+      <c r="P185">
+        <v>0.48153594771241831</v>
+      </c>
+      <c r="Q185">
+        <v>0.40789613894877053</v>
+      </c>
+      <c r="R185">
+        <v>0.44222222222222218</v>
+      </c>
+      <c r="S185">
+        <v>0.1619465895314893</v>
+      </c>
+      <c r="T185" t="s">
+        <v>568</v>
+      </c>
+      <c r="U185" t="s">
+        <v>569</v>
+      </c>
+      <c r="V185" t="s">
+        <v>570</v>
+      </c>
+      <c r="W185" t="s">
+        <v>571</v>
+      </c>
+      <c r="X185" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>441</v>
+      </c>
+      <c r="B187">
+        <v>100</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>1E-3</v>
+      </c>
+      <c r="E187">
+        <v>0.2</v>
+      </c>
+      <c r="F187">
+        <v>0.01</v>
+      </c>
+      <c r="G187" t="s">
+        <v>574</v>
+      </c>
+      <c r="I187" t="s">
+        <v>443</v>
+      </c>
+      <c r="L187" t="s">
+        <v>443</v>
+      </c>
+      <c r="O187" t="s">
+        <v>575</v>
+      </c>
+      <c r="P187">
+        <v>0.42352941176470588</v>
+      </c>
+      <c r="Q187">
+        <v>0.41516761016761022</v>
+      </c>
+      <c r="R187">
+        <v>0.42865079365079373</v>
+      </c>
+      <c r="S187">
+        <v>0.18905691592541149</v>
+      </c>
+      <c r="T187" t="s">
+        <v>576</v>
+      </c>
+      <c r="U187" t="s">
+        <v>577</v>
+      </c>
+      <c r="V187" t="s">
+        <v>578</v>
+      </c>
+      <c r="W187" t="s">
+        <v>579</v>
+      </c>
+      <c r="X187" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
